--- a/PCR/VGM_miss/RFI MATRIX111.xlsx
+++ b/PCR/VGM_miss/RFI MATRIX111.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssc.achauhan\Desktop\Projects\PCR\VGM_miss\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssc.achauhan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C9D73F-27C5-4849-80A4-F1AB541721EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED87098-D751-4B64-90AC-8ACCF0B15106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="u79f0zQvMdYgPajXT+L1hE8YGELmGQP3CRQZcJff7zi5Q7c+Ib205nFm/zUWznHU+l9wiaXMCx8E1u1goDNA9g==" workbookSaltValue="PGATcCfetanv10QnNLQWsg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="862" xr2:uid="{2D51809B-3312-43CF-8C44-7BA011B2DD72}"/>
@@ -21,7 +21,7 @@
     <sheet name="IMP LINKS" sheetId="13" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'AMS + VGM + POL QUERY'!$A$1:$F$110</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'AMS + VGM + POL QUERY'!$A$1:$F$109</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="375">
   <si>
     <t>COUNTRY</t>
   </si>
@@ -658,12 +658,6 @@
   </si>
   <si>
     <t>UKRAINE</t>
-  </si>
-  <si>
-    <t>USA - US</t>
-  </si>
-  <si>
-    <t>USNYC USSAV USORF USCHS USMIA  USHOU USPHL USMSY USMOB USJAX USPEF USTIW USBOS USBAL USILG</t>
   </si>
   <si>
     <t>USOAK USLGB USLAX USSEA USHNL</t>
@@ -1418,7 +1412,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1502,9 +1496,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1514,10 +1505,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1529,35 +1541,8 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1969,13 +1954,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7737A380-9172-4FAF-9AA6-34FD16D6C4DE}">
-  <dimension ref="A1:F110"/>
+  <dimension ref="A1:F109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C104" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2017,16 +2002,16 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="E2" s="45" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>374</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
@@ -2037,16 +2022,16 @@
         <v>9</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D3" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="E3" s="45" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>374</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -2057,16 +2042,16 @@
         <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D4" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="E4" s="45" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>374</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -2077,16 +2062,16 @@
         <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D5" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="E5" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="F5" s="45" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="58" x14ac:dyDescent="0.35">
@@ -2097,16 +2082,16 @@
         <v>15</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D6" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="E6" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="F6" s="46" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="58" x14ac:dyDescent="0.35">
@@ -2116,17 +2101,17 @@
       <c r="B7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="D7" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="E7" s="45" t="s">
-        <v>376</v>
+      <c r="C7" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>374</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
@@ -2137,16 +2122,16 @@
         <v>19</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D8" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="E8" s="45" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>374</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -2157,16 +2142,16 @@
         <v>21</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D9" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="E9" s="45" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>374</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -2177,16 +2162,16 @@
         <v>23</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D10" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="E10" s="45" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>374</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -2197,16 +2182,16 @@
         <v>25</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D11" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="E11" s="45" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>374</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="58" x14ac:dyDescent="0.35">
@@ -2217,16 +2202,16 @@
         <v>27</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D12" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="E12" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="F12" s="45" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -2235,16 +2220,16 @@
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D13" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="E13" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="F13" s="45" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -2254,17 +2239,17 @@
       <c r="B14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="D14" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="E14" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="F14" s="45" t="s">
-        <v>376</v>
+      <c r="C14" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -2275,16 +2260,16 @@
         <v>32</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D15" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="E15" s="45" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>374</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -2295,16 +2280,16 @@
         <v>34</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D16" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="E16" s="45" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>374</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
@@ -2315,16 +2300,16 @@
         <v>36</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D17" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="E17" s="45" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>374</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -2335,16 +2320,16 @@
         <v>38</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D18" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="E18" s="45" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>374</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -2354,17 +2339,17 @@
       <c r="B19" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="D19" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="E19" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="F19" s="45" t="s">
-        <v>376</v>
+      <c r="C19" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="F19" s="34" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -2375,16 +2360,16 @@
         <v>42</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D20" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="E20" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="F20" s="46" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="F20" s="35" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -2395,16 +2380,16 @@
         <v>44</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D21" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="E21" s="45" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>374</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="58" x14ac:dyDescent="0.35">
@@ -2415,16 +2400,16 @@
         <v>46</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D22" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="E22" s="45" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>374</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
@@ -2435,16 +2420,16 @@
         <v>48</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="E23" s="45" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>374</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
@@ -2455,16 +2440,16 @@
         <v>50</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D24" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="E24" s="45" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>374</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
@@ -2474,17 +2459,17 @@
       <c r="B25" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="D25" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="E25" s="45" t="s">
-        <v>376</v>
+      <c r="C25" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>374</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -2494,17 +2479,17 @@
       <c r="B26" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="D26" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="E26" s="45" t="s">
-        <v>376</v>
+      <c r="C26" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>374</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
@@ -2514,17 +2499,17 @@
       <c r="B27" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="D27" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="E27" s="45" t="s">
-        <v>376</v>
+      <c r="C27" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="E27" s="34" t="s">
+        <v>374</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
@@ -2534,17 +2519,17 @@
       <c r="B28" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="D28" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="E28" s="45" t="s">
-        <v>376</v>
+      <c r="C28" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>374</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
@@ -2554,17 +2539,17 @@
       <c r="B29" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="D29" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="E29" s="45" t="s">
-        <v>376</v>
+      <c r="C29" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="D29" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="E29" s="34" t="s">
+        <v>374</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
@@ -2575,16 +2560,16 @@
         <v>62</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D30" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="E30" s="45" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+      <c r="D30" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="E30" s="34" t="s">
+        <v>374</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
@@ -2595,16 +2580,16 @@
         <v>64</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D31" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="E31" s="45" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+      <c r="D31" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="E31" s="34" t="s">
+        <v>374</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
@@ -2613,16 +2598,16 @@
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D32" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="E32" s="45" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+      <c r="D32" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="E32" s="34" t="s">
+        <v>374</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
@@ -2633,16 +2618,16 @@
         <v>67</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D33" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="E33" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="F33" s="45" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+      <c r="D33" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="E33" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="F33" s="34" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
@@ -2653,16 +2638,16 @@
         <v>69</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D34" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="E34" s="45" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+      <c r="D34" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="E34" s="34" t="s">
+        <v>374</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
@@ -2673,16 +2658,16 @@
         <v>71</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D35" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="E35" s="45" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+      <c r="D35" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="E35" s="34" t="s">
+        <v>374</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
@@ -2693,16 +2678,16 @@
         <v>73</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D36" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="E36" s="45" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+      <c r="D36" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="E36" s="34" t="s">
+        <v>374</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
@@ -2712,17 +2697,17 @@
       <c r="B37" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C37" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="D37" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="E37" s="45" t="s">
-        <v>376</v>
+      <c r="C37" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="D37" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="E37" s="34" t="s">
+        <v>374</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
@@ -2733,16 +2718,16 @@
         <v>77</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D38" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="E38" s="45" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+      <c r="D38" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="E38" s="34" t="s">
+        <v>374</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
@@ -2753,16 +2738,16 @@
         <v>79</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D39" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="E39" s="45" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+      <c r="D39" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="E39" s="34" t="s">
+        <v>374</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
@@ -2773,16 +2758,16 @@
         <v>81</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D40" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="E40" s="45" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+      <c r="D40" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="E40" s="34" t="s">
+        <v>374</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
@@ -2793,16 +2778,16 @@
         <v>83</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D41" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="E41" s="45" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+      <c r="D41" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="E41" s="34" t="s">
+        <v>374</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="58" x14ac:dyDescent="0.35">
@@ -2812,17 +2797,17 @@
       <c r="B42" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C42" s="46" t="s">
-        <v>376</v>
+      <c r="C42" s="35" t="s">
+        <v>374</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="E42" s="45" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+      <c r="E42" s="34" t="s">
+        <v>374</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="87" x14ac:dyDescent="0.35">
@@ -2833,16 +2818,16 @@
         <v>87</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D43" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="E43" s="45" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+      <c r="D43" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="E43" s="34" t="s">
+        <v>374</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
@@ -2853,16 +2838,16 @@
         <v>89</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D44" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="E44" s="45" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+      <c r="D44" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="E44" s="34" t="s">
+        <v>374</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
@@ -2873,16 +2858,16 @@
         <v>91</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D45" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="E45" s="45" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+      <c r="D45" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="E45" s="34" t="s">
+        <v>374</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="58" x14ac:dyDescent="0.35">
@@ -2893,16 +2878,16 @@
         <v>93</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D46" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="E46" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="F46" s="46" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+      <c r="D46" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="E46" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="F46" s="35" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
@@ -2913,16 +2898,16 @@
         <v>95</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D47" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="E47" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="F47" s="46" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+      <c r="D47" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="E47" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="F47" s="35" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
@@ -2933,16 +2918,16 @@
         <v>97</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D48" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="E48" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="F48" s="46" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+      <c r="D48" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="E48" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="F48" s="35" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
@@ -2952,17 +2937,17 @@
       <c r="B49" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C49" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="D49" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="E49" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="F49" s="46" t="s">
-        <v>376</v>
+      <c r="C49" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="D49" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="E49" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="F49" s="35" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
@@ -2972,17 +2957,17 @@
       <c r="B50" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C50" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="D50" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="E50" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="F50" s="45" t="s">
-        <v>376</v>
+      <c r="C50" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="D50" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="E50" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="F50" s="34" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
@@ -2992,17 +2977,17 @@
       <c r="B51" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C51" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="D51" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="E51" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="F51" s="45" t="s">
-        <v>376</v>
+      <c r="C51" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="D51" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="E51" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="F51" s="34" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
@@ -3012,17 +2997,17 @@
       <c r="B52" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C52" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="D52" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="E52" s="45" t="s">
-        <v>376</v>
+      <c r="C52" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="D52" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="E52" s="34" t="s">
+        <v>374</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -3032,17 +3017,17 @@
       <c r="B53" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C53" s="45" t="s">
-        <v>376</v>
+      <c r="C53" s="34" t="s">
+        <v>374</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="E53" s="45" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+      <c r="E53" s="34" t="s">
+        <v>374</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
@@ -3053,16 +3038,16 @@
         <v>109</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D54" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="E54" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="F54" s="46" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+      <c r="D54" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="E54" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="F54" s="35" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
@@ -3073,16 +3058,16 @@
         <v>111</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D55" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="E55" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="F55" s="46" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+      <c r="D55" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="E55" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="F55" s="35" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
@@ -3093,16 +3078,16 @@
         <v>113</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="E56" s="45" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+      <c r="E56" s="34" t="s">
+        <v>374</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
@@ -3113,16 +3098,16 @@
         <v>115</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D57" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="E57" s="45" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+      <c r="D57" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="E57" s="34" t="s">
+        <v>374</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
@@ -3132,17 +3117,17 @@
       <c r="B58" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C58" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="D58" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="E58" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="F58" s="45" t="s">
-        <v>376</v>
+      <c r="C58" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="D58" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="E58" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="F58" s="34" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
@@ -3152,17 +3137,17 @@
       <c r="B59" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C59" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="D59" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="E59" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="F59" s="45" t="s">
-        <v>376</v>
+      <c r="C59" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="D59" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="E59" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="F59" s="34" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -3173,16 +3158,16 @@
         <v>121</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D60" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="E60" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="F60" s="46" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+      <c r="D60" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="E60" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="F60" s="35" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
@@ -3192,17 +3177,17 @@
       <c r="B61" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C61" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="D61" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="E61" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="F61" s="45" t="s">
-        <v>376</v>
+      <c r="C61" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="D61" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="E61" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="F61" s="34" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
@@ -3212,17 +3197,17 @@
       <c r="B62" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C62" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="D62" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="E62" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="F62" s="45" t="s">
-        <v>376</v>
+      <c r="C62" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="D62" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="E62" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="F62" s="34" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
@@ -3232,17 +3217,17 @@
       <c r="B63" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C63" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="D63" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="E63" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="F63" s="45" t="s">
-        <v>376</v>
+      <c r="C63" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="D63" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="E63" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="F63" s="34" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
@@ -3252,17 +3237,17 @@
       <c r="B64" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C64" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="D64" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="E64" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="F64" s="45" t="s">
-        <v>376</v>
+      <c r="C64" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="D64" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="E64" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="F64" s="34" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
@@ -3273,16 +3258,16 @@
         <v>131</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D65" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="E65" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="F65" s="45" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+      <c r="D65" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="E65" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="F65" s="34" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
@@ -3291,16 +3276,16 @@
       </c>
       <c r="B66" s="4"/>
       <c r="C66" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D66" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="E66" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="F66" s="45" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+      <c r="D66" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="E66" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="F66" s="34" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
@@ -3311,16 +3296,16 @@
         <v>134</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="E67" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="F67" s="46" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+      <c r="E67" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="F67" s="35" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
@@ -3329,16 +3314,16 @@
       </c>
       <c r="B68" s="4"/>
       <c r="C68" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D68" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="E68" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="F68" s="45" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+      <c r="D68" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="E68" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="F68" s="34" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3349,16 +3334,16 @@
         <v>137</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D69" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="E69" s="45" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+      <c r="D69" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="E69" s="34" t="s">
+        <v>374</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="145" x14ac:dyDescent="0.35">
@@ -3369,16 +3354,16 @@
         <v>139</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D70" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="E70" s="45" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+      <c r="D70" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="E70" s="34" t="s">
+        <v>374</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
@@ -3389,16 +3374,16 @@
         <v>141</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D71" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="E71" s="45" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+      <c r="D71" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="E71" s="34" t="s">
+        <v>374</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
@@ -3408,17 +3393,17 @@
       <c r="B72" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C72" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="D72" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="E72" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="F72" s="45" t="s">
-        <v>376</v>
+      <c r="C72" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="D72" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="E72" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="F72" s="34" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
@@ -3429,16 +3414,16 @@
         <v>145</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D73" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="E73" s="45" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+      <c r="D73" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="E73" s="34" t="s">
+        <v>374</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
@@ -3448,17 +3433,17 @@
       <c r="B74" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C74" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="D74" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="E74" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="F74" s="45" t="s">
-        <v>376</v>
+      <c r="C74" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="D74" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="E74" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="F74" s="34" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
@@ -3468,17 +3453,17 @@
       <c r="B75" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C75" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="D75" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="E75" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="F75" s="45" t="s">
-        <v>376</v>
+      <c r="C75" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="D75" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="E75" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="F75" s="34" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
@@ -3488,17 +3473,17 @@
       <c r="B76" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C76" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="D76" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="E76" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="F76" s="45" t="s">
-        <v>376</v>
+      <c r="C76" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="D76" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="E76" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="F76" s="34" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
@@ -3509,16 +3494,16 @@
         <v>153</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D77" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="E77" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="F77" s="46" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+      <c r="D77" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="E77" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="F77" s="35" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
@@ -3529,16 +3514,16 @@
         <v>155</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D78" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="E78" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="F78" s="46" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+      <c r="D78" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="E78" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="F78" s="35" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
@@ -3549,16 +3534,16 @@
         <v>157</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D79" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="E79" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="F79" s="46" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+      <c r="D79" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="E79" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="F79" s="35" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
@@ -3569,16 +3554,16 @@
         <v>159</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="E80" s="45" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+      <c r="E80" s="34" t="s">
+        <v>374</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
@@ -3588,17 +3573,17 @@
       <c r="B81" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C81" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="D81" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="E81" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="F81" s="45" t="s">
-        <v>376</v>
+      <c r="C81" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="D81" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="E81" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="F81" s="34" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
@@ -3606,17 +3591,17 @@
         <v>162</v>
       </c>
       <c r="B82" s="4"/>
-      <c r="C82" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="D82" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="E82" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="F82" s="45" t="s">
-        <v>376</v>
+      <c r="C82" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="D82" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="E82" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="F82" s="34" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="58" x14ac:dyDescent="0.35">
@@ -3626,17 +3611,17 @@
       <c r="B83" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C83" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="D83" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="E83" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="F83" s="45" t="s">
-        <v>376</v>
+      <c r="C83" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="D83" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="E83" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="F83" s="34" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
@@ -3647,16 +3632,16 @@
         <v>166</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D84" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="E84" s="45" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+      <c r="D84" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="E84" s="34" t="s">
+        <v>374</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
@@ -3667,16 +3652,16 @@
         <v>168</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D85" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="E85" s="45" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+      <c r="D85" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="E85" s="34" t="s">
+        <v>374</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
@@ -3687,16 +3672,16 @@
         <v>170</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D86" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="E86" s="45" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+      <c r="D86" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="E86" s="34" t="s">
+        <v>374</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
@@ -3706,17 +3691,17 @@
       <c r="B87" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C87" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="D87" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="E87" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="F87" s="45" t="s">
-        <v>376</v>
+      <c r="C87" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="D87" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="E87" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="F87" s="34" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
@@ -3726,17 +3711,17 @@
       <c r="B88" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C88" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="D88" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="E88" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="F88" s="45" t="s">
-        <v>376</v>
+      <c r="C88" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="D88" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="E88" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="F88" s="34" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
@@ -3747,16 +3732,16 @@
         <v>176</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="E89" s="45" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+      <c r="E89" s="34" t="s">
+        <v>374</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
@@ -3766,17 +3751,17 @@
       <c r="B90" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="C90" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="D90" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="E90" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="F90" s="45" t="s">
-        <v>376</v>
+      <c r="C90" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="D90" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="E90" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="F90" s="34" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
@@ -3786,17 +3771,17 @@
       <c r="B91" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C91" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="D91" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="E91" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="F91" s="45" t="s">
-        <v>376</v>
+      <c r="C91" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="D91" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="E91" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="F91" s="34" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
@@ -3807,16 +3792,16 @@
         <v>182</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D92" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="E92" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="F92" s="46" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+      <c r="D92" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="E92" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="F92" s="35" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
@@ -3827,16 +3812,16 @@
         <v>184</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D93" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="E93" s="45" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+      <c r="D93" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="E93" s="34" t="s">
+        <v>374</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="58" x14ac:dyDescent="0.35">
@@ -3847,16 +3832,16 @@
         <v>186</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D94" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="E94" s="45" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+      <c r="D94" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="E94" s="34" t="s">
+        <v>374</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
@@ -3865,16 +3850,16 @@
       </c>
       <c r="B95" s="4"/>
       <c r="C95" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D95" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="E95" s="45" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+      <c r="D95" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="E95" s="34" t="s">
+        <v>374</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
@@ -3884,17 +3869,17 @@
       <c r="B96" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C96" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="D96" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="E96" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="F96" s="45" t="s">
-        <v>376</v>
+      <c r="C96" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="D96" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="E96" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="F96" s="34" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
@@ -3904,17 +3889,17 @@
       <c r="B97" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="C97" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="D97" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="E97" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="F97" s="45" t="s">
-        <v>376</v>
+      <c r="C97" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="D97" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="E97" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="F97" s="34" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
@@ -3925,16 +3910,16 @@
         <v>193</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D98" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="E98" s="45" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+      <c r="D98" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="E98" s="34" t="s">
+        <v>374</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
@@ -3945,16 +3930,16 @@
         <v>195</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D99" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="E99" s="45" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+      <c r="D99" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="E99" s="34" t="s">
+        <v>374</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -3965,16 +3950,16 @@
         <v>197</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D100" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="E100" s="45" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+      <c r="D100" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="E100" s="34" t="s">
+        <v>374</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
@@ -3985,16 +3970,16 @@
         <v>199</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D101" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="E101" s="45" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+      <c r="D101" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="E101" s="34" t="s">
+        <v>374</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -4004,17 +3989,17 @@
       <c r="B102" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="C102" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="D102" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="E102" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="F102" s="47" t="s">
-        <v>376</v>
+      <c r="C102" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="D102" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="E102" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="F102" s="36" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="58" x14ac:dyDescent="0.35">
@@ -4025,16 +4010,16 @@
         <v>203</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D103" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="E103" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="F103" s="46" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+      <c r="D103" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="E103" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="F103" s="35" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
@@ -4043,138 +4028,113 @@
       </c>
       <c r="B104" s="5"/>
       <c r="C104" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D104" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="E104" s="45" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+      <c r="D104" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="E104" s="34" t="s">
+        <v>374</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A105" s="31" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A105" s="31"/>
+      <c r="B105" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B105" s="5" t="s">
+      <c r="C105" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D105" s="32"/>
+      <c r="E105" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="F105" s="33"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A106" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C105" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D105" s="48" t="s">
-        <v>376</v>
-      </c>
-      <c r="E105" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="F105" s="49" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A106" s="32"/>
-      <c r="B106" s="5" t="s">
+      <c r="B106" s="4" t="s">
         <v>207</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D106" s="33"/>
-      <c r="E106" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="F106" s="34"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+        <v>374</v>
+      </c>
+      <c r="D106" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="E106" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A107" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="B107" s="5" t="s">
         <v>209</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D107" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="E107" s="45" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+      <c r="D107" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="E107" s="34" t="s">
+        <v>374</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A108" s="4" t="s">
         <v>210</v>
       </c>
       <c r="B108" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="C108" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D108" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="E108" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="F108" s="4" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C108" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="D108" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="E108" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="F108" s="34" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="4" t="s">
         <v>212</v>
       </c>
       <c r="B109" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="C109" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="D109" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="E109" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="F109" s="45" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A110" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D110" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="E110" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="F110" s="4" t="s">
-        <v>376</v>
+      <c r="C109" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D109" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="E109" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>374</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="F105:F106"/>
-  </mergeCells>
   <hyperlinks>
     <hyperlink ref="F51" r:id="rId1" display="sel.reefercargo@cma-cgm.com;" xr:uid="{61C26426-D6C4-43DB-8CB1-C555469E785F}"/>
     <hyperlink ref="D62" r:id="rId2" display="ber.vgmcontact@cma-cgm.com;" xr:uid="{0B7F5A34-3002-477C-8217-BFF129CF622D}"/>
@@ -4198,7 +4158,7 @@
     <hyperlink ref="D4" r:id="rId20" display="lad.vgmcontact@cma-cgm.com;" xr:uid="{9580C004-F40C-482E-82CF-2A61F9F2B653}"/>
     <hyperlink ref="F46" r:id="rId21" display="gen.reefer@cma-cgm.com;" xr:uid="{E890F557-0547-4BA2-92FD-9E264FDC4666}"/>
     <hyperlink ref="D3" r:id="rId22" display="age.vgmcontact@cma-cgm.com;" xr:uid="{F868B8A6-50B4-45E7-B8D8-A161A6986138}"/>
-    <hyperlink ref="D108" r:id="rId23" display="vln.vgmcontact@cma-cgm.com;" xr:uid="{287E43EE-289E-4416-BE70-ADCEF93A07D1}"/>
+    <hyperlink ref="D107" r:id="rId23" display="vln.vgmcontact@cma-cgm.com;" xr:uid="{287E43EE-289E-4416-BE70-ADCEF93A07D1}"/>
     <hyperlink ref="D99" r:id="rId24" display="PSP.VGMCONTACT@cma-cgm.com;" xr:uid="{ED8AE444-0601-4285-8F85-3E326524D5BE}"/>
     <hyperlink ref="D39" r:id="rId25" display="GTW.VGMCONTACT@cma-cgm.com;" xr:uid="{A9AB5067-8270-443C-B3A0-3C764A17FCA6}"/>
     <hyperlink ref="D84" r:id="rId26" display="SLU.VGMCONTACT@cma-cgm.com;" xr:uid="{0C6CA782-2443-444D-A4FB-1C7FA2BA368D}"/>
@@ -4224,7 +4184,7 @@
     <hyperlink ref="D10" r:id="rId46" display="ant.vgmcontact@cma-cgm.com;" xr:uid="{B1087FFF-EC92-45A5-930E-BB83CB66DEA8}"/>
     <hyperlink ref="D93" r:id="rId47" display="pbo.vgmcontact@cma-cgm.com;" xr:uid="{A4E94F80-6535-495E-B9ED-92DC9621F2CB}"/>
     <hyperlink ref="D12" r:id="rId48" display="BRA.VGMCONTACT@cma-cgm.com;" xr:uid="{DA5320E2-F06A-4075-8B60-D791F4FE8658}"/>
-    <hyperlink ref="D107" r:id="rId49" display="mvd.vgmcontact@cma-cgm.com;" xr:uid="{C7097EFE-D380-4F3A-9E24-35591119284E}"/>
+    <hyperlink ref="D106" r:id="rId49" display="mvd.vgmcontact@cma-cgm.com;" xr:uid="{C7097EFE-D380-4F3A-9E24-35591119284E}"/>
     <hyperlink ref="D5" r:id="rId50" display="BRA.VGMCONTACT@cma-cgm.com;" xr:uid="{F7382F0C-E832-4BA6-9CC8-F920B767D711}"/>
     <hyperlink ref="D16" r:id="rId51" display="cda.vgm_GS@cma-cgm.com;" xr:uid="{A99860A4-371A-4154-AF3B-AE957D8C8FCE}"/>
     <hyperlink ref="D17" r:id="rId52" display="sng.vgmcontact@cma-cgm.com;" xr:uid="{FF3B17C0-A93D-4DC3-B667-3F7C860008FF}"/>
@@ -4249,15 +4209,14 @@
     <hyperlink ref="D22" r:id="rId71" display="gtg.vgmcontact@cma-cgm.com;" xr:uid="{F591F028-104F-4197-AD3D-5420226EA076}"/>
     <hyperlink ref="D97" r:id="rId72" display="thd.vgmcontact@cma-cgm.com;" xr:uid="{46ABE9FD-C698-4225-81B4-C581991277BD}"/>
     <hyperlink ref="D103" r:id="rId73" display="lpl.vgmcontact@cma-cgm.com;" xr:uid="{457ECCD6-D9D0-4D43-BEB4-1F8E178DE01C}"/>
-    <hyperlink ref="D105" r:id="rId74" display="usa.vgmcontact@usa.cma-cgm.com;" xr:uid="{BB83E4CB-A105-4FF1-A897-9C8695D400D7}"/>
-    <hyperlink ref="F103" r:id="rId75" display="lpl.specialcargo@cma-cgm.com;LPL.WKELLY@cma-cgm.com" xr:uid="{7C85545B-26CE-4A02-85CB-2F5EA4B4816E}"/>
-    <hyperlink ref="D28" r:id="rId76" display="lhv.vgmcontact@anleurope.com" xr:uid="{BC057363-BCAD-4196-B026-0E7BEC96E35C}"/>
-    <hyperlink ref="C53" r:id="rId77" display="ssc.mgexportsdocs@cma-cgm.com;" xr:uid="{C9767991-9E61-4408-BBFC-2A97155EB1EB}"/>
-    <hyperlink ref="D2" r:id="rId78" xr:uid="{A4627FD9-DD5E-47AB-A393-BFBA45DB2435}"/>
-    <hyperlink ref="C2" r:id="rId79" xr:uid="{8FAAAA8D-1677-4BF2-B94E-61EE148B1142}"/>
+    <hyperlink ref="F103" r:id="rId74" display="lpl.specialcargo@cma-cgm.com;LPL.WKELLY@cma-cgm.com" xr:uid="{7C85545B-26CE-4A02-85CB-2F5EA4B4816E}"/>
+    <hyperlink ref="D28" r:id="rId75" display="lhv.vgmcontact@anleurope.com" xr:uid="{BC057363-BCAD-4196-B026-0E7BEC96E35C}"/>
+    <hyperlink ref="C53" r:id="rId76" display="ssc.mgexportsdocs@cma-cgm.com;" xr:uid="{C9767991-9E61-4408-BBFC-2A97155EB1EB}"/>
+    <hyperlink ref="D2" r:id="rId77" xr:uid="{A4627FD9-DD5E-47AB-A393-BFBA45DB2435}"/>
+    <hyperlink ref="C2" r:id="rId78" xr:uid="{8FAAAA8D-1677-4BF2-B94E-61EE148B1142}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId80"/>
+  <pageSetup orientation="portrait" r:id="rId79"/>
 </worksheet>
 </file>
 
@@ -4280,33 +4239,33 @@
   <sheetData>
     <row r="1" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="E1" s="3" t="s">
         <v>218</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -4316,57 +4275,57 @@
       <c r="D3" s="25"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="B4" s="38"/>
+      <c r="C4" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="D5" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>231</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="E7" s="27" t="s">
         <v>237</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -4374,45 +4333,45 @@
       <c r="B8" s="3"/>
     </row>
     <row r="9" spans="1:5" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="B9" s="38"/>
+      <c r="C9" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>243</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="26" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -4420,45 +4379,45 @@
       <c r="B13" s="3"/>
     </row>
     <row r="14" spans="1:5" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="37" t="s">
+        <v>246</v>
+      </c>
+      <c r="B14" s="38"/>
+      <c r="C14" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>251</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="26" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -4466,39 +4425,39 @@
       <c r="B18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="35" t="s">
-        <v>255</v>
-      </c>
-      <c r="B19" s="36"/>
+      <c r="A19" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="B19" s="38"/>
       <c r="C19" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="26" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
@@ -4506,270 +4465,270 @@
       <c r="B23" s="3"/>
     </row>
     <row r="24" spans="1:6" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="37" t="s">
+        <v>258</v>
+      </c>
+      <c r="B24" s="38"/>
+      <c r="C24" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="7" t="s">
+      <c r="E24" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="F24" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="E25" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="F25" s="5" t="s">
         <v>267</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="26" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="B29" s="38"/>
+      <c r="C29" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="D29" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="12" t="s">
+      <c r="E29" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="F29" s="13" t="s">
         <v>273</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="232" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="E30" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="F30" s="5" t="s">
         <v>279</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="116" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>282</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>284</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>287</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>289</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="116" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="E33" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="F33" s="4" t="s">
         <v>295</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="E34" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="D34" s="3" t="s">
+      <c r="F34" s="5" t="s">
         <v>300</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="E35" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="F35" s="4" t="s">
         <v>306</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>303</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>305</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>303</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>305</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="E38" s="4" t="s">
         <v>313</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>315</v>
       </c>
       <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="C39" s="3" t="s">
+      <c r="E39" s="4" t="s">
         <v>294</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>296</v>
       </c>
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="4"/>
@@ -4777,29 +4736,29 @@
     </row>
     <row r="41" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F41" s="4"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F42" s="4"/>
     </row>
@@ -4856,116 +4815,116 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>323</v>
+      </c>
+      <c r="C1" s="40" t="s">
         <v>324</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="D1" s="39" t="s">
         <v>325</v>
       </c>
-      <c r="C1" s="40" t="s">
-        <v>326</v>
-      </c>
-      <c r="D1" s="43" t="s">
-        <v>327</v>
-      </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="40" t="s">
+        <v>326</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="42" t="s">
+        <v>327</v>
+      </c>
+      <c r="E2" s="42" t="s">
         <v>328</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="44" t="s">
+      <c r="F2" s="42"/>
+      <c r="G2" s="42" t="s">
         <v>329</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="H2" s="42"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="41"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="15" t="s">
         <v>330</v>
       </c>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44" t="s">
+      <c r="F3" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="H2" s="44"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="42"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="15" t="s">
-        <v>332</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>333</v>
-      </c>
       <c r="G3" s="15" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="D4" s="18" t="s">
         <v>335</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="E4" s="19" t="s">
         <v>336</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="F4" s="18" t="s">
         <v>337</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="G4" s="19" t="s">
         <v>338</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="H4" s="18" t="s">
         <v>339</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>340</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>342</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="D5" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="E5" s="19" t="s">
         <v>343</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="F5" s="18" t="s">
         <v>344</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>337</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>345</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>346</v>
-      </c>
       <c r="G5" s="19" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
@@ -4976,36 +4935,36 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="D7" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>350</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="F7" s="18" t="s">
         <v>351</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>352</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>353</v>
-      </c>
       <c r="G7" s="19" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
@@ -5015,42 +4974,42 @@
       <c r="H8" s="20"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="44" t="s">
+        <v>354</v>
+      </c>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+    </row>
+    <row r="12" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="43" t="s">
+        <v>355</v>
+      </c>
+      <c r="B12" s="43"/>
+      <c r="C12" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-    </row>
-    <row r="12" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="37" t="s">
+    </row>
+    <row r="13" spans="1:8" ht="113.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="43" t="s">
         <v>357</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="4" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="113.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="37" t="s">
-        <v>359</v>
-      </c>
-      <c r="B13" s="37"/>
+      <c r="B13" s="43"/>
       <c r="C13" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" display="mailto:mby.impdoc@cma-cgm.com" xr:uid="{2F014064-CA15-4C21-BF12-A5E7AA0C887A}"/>
@@ -5085,18 +5044,18 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="28" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="N1" s="28" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="29" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="N2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -5124,50 +5083,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
